--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF2ABE5-586C-B64E-ADCE-8E77E7F57C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C88BA-3DC5-694F-8445-1D3725E4C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="230">
   <si>
     <t>param</t>
   </si>
@@ -587,9 +587,6 @@
     <t>d*M</t>
   </si>
   <si>
-    <t>gamma*I</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
@@ -671,12 +668,6 @@
     <t>Births no-maternal-immunity</t>
   </si>
   <si>
-    <t>(1-mprop)*births</t>
-  </si>
-  <si>
-    <t>mprop*births</t>
-  </si>
-  <si>
     <t>lambda*S</t>
   </si>
   <si>
@@ -730,6 +721,15 @@
   <si>
     <t>u*I</t>
   </si>
+  <si>
+    <t>(1-mprop)*bi</t>
+  </si>
+  <si>
+    <t>mprop*bi</t>
+  </si>
+  <si>
+    <t>gamm*I</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0_);[Red]\(&quot;R&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -782,19 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -835,22 +822,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,13 +1115,13 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1147,7 +1131,7 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
@@ -1160,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1173,23 +1157,23 @@
     <col min="5" max="5" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1201,16 +1185,16 @@
         <v>163</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1221,16 +1205,16 @@
         <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1250,7 +1234,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1261,27 +1245,27 @@
         <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>212</v>
+      <c r="C6" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>143</v>
@@ -1290,7 +1274,7 @@
         <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1301,7 +1285,7 @@
         <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>144</v>
@@ -1310,67 +1294,67 @@
         <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>221</v>
+      <c r="C8" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>222</v>
+      <c r="C9" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>223</v>
+      <c r="C10" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1381,33 +1365,36 @@
         <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1418,16 +1405,16 @@
         <v>164</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1438,7 +1425,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>148</v>
@@ -1447,18 +1434,18 @@
         <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>186</v>
+      <c r="C15" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>149</v>
@@ -1467,7 +1454,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1478,7 +1465,7 @@
         <v>172</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>150</v>
@@ -1487,18 +1474,18 @@
         <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>188</v>
+      <c r="C17" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>151</v>
@@ -1507,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1518,7 +1505,7 @@
         <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>152</v>
@@ -1527,28 +1514,32 @@
         <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>226</v>
+      <c r="C19" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,37 +1561,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>180</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1620,7 +1611,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <f t="shared" ref="F2:F13" si="0">1-EXP(-0.95*A2)</f>
         <v>0.61325897654549877</v>
       </c>
@@ -1662,7 +1653,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>0.85043138077736491</v>
       </c>
@@ -1704,7 +1695,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>0.94215567912516152</v>
       </c>
@@ -1746,7 +1737,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>0.97762922814383435</v>
       </c>
@@ -1788,7 +1779,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>0.99134830479687941</v>
       </c>
@@ -1831,7 +1822,7 @@
         <f>0.847*0.97*0.85</f>
         <v>0.6983514999999999</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.99665403454252877</v>
       </c>
@@ -1873,7 +1864,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.99870597789453419</v>
       </c>
@@ -1915,7 +1906,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.99949954856655943</v>
       </c>
@@ -1957,7 +1948,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>0.99980645490044195</v>
       </c>
@@ -1999,7 +1990,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>0.99992514817011235</v>
       </c>
@@ -2041,7 +2032,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>0.99997105172670175</v>
       </c>
@@ -2084,7 +2075,7 @@
         <f>0.72*0.97*0.85</f>
         <v>0.59363999999999995</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0.99998880451515737</v>
       </c>
@@ -3592,7 +3583,7 @@
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="1">
@@ -3609,7 +3600,7 @@
         <f>1/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="6" t="s">
         <v>83</v>
       </c>
       <c r="I50">
@@ -3674,7 +3665,7 @@
       <c r="B52" s="1">
         <v>72</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D52" s="1">
@@ -3691,7 +3682,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="6" t="s">
         <v>85</v>
       </c>
       <c r="I52">
@@ -3756,7 +3747,7 @@
       <c r="B54" s="1">
         <v>96</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D54" s="1">
@@ -3773,7 +3764,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I54">
@@ -3838,7 +3829,7 @@
       <c r="B56" s="1">
         <v>120</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D56" s="1">
@@ -3855,7 +3846,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="6" t="s">
         <v>89</v>
       </c>
       <c r="I56">
@@ -3920,7 +3911,7 @@
       <c r="B58" s="1">
         <v>144</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="1">
@@ -3937,7 +3928,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="6" t="s">
         <v>91</v>
       </c>
       <c r="I58">
@@ -4002,7 +3993,7 @@
       <c r="B60" s="1">
         <v>168</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D60" s="1">
@@ -4019,7 +4010,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="6" t="s">
         <v>93</v>
       </c>
       <c r="I60">
@@ -4084,7 +4075,7 @@
       <c r="B62" s="1">
         <v>192</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="1">
@@ -4101,7 +4092,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I62">
@@ -4166,7 +4157,7 @@
       <c r="B64" s="1">
         <v>216</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D64" s="1">
@@ -4183,7 +4174,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="I64">
@@ -4248,7 +4239,7 @@
       <c r="B66" s="1">
         <v>240</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D66" s="1">
@@ -4265,7 +4256,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="I66">
@@ -4330,7 +4321,7 @@
       <c r="B68" s="1">
         <v>264</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D68" s="1">
@@ -4347,7 +4338,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="6" t="s">
         <v>101</v>
       </c>
       <c r="I68">
@@ -4412,7 +4403,7 @@
       <c r="B70" s="1">
         <v>288</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D70" s="1">
@@ -4429,7 +4420,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="6" t="s">
         <v>103</v>
       </c>
       <c r="I70">
@@ -4494,7 +4485,7 @@
       <c r="B72" s="1">
         <v>312</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D72" s="1">
@@ -4511,7 +4502,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I72">
@@ -4576,7 +4567,7 @@
       <c r="B74" s="1">
         <v>336</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D74" s="1">
@@ -4593,7 +4584,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="6" t="s">
         <v>107</v>
       </c>
       <c r="I74">
@@ -4658,7 +4649,7 @@
       <c r="B76" s="1">
         <v>360</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="1">
@@ -4675,7 +4666,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="6" t="s">
         <v>109</v>
       </c>
       <c r="I76">
@@ -4740,7 +4731,7 @@
       <c r="B78" s="1">
         <v>384</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D78" s="1">
@@ -4757,7 +4748,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I78">
@@ -4822,7 +4813,7 @@
       <c r="B80" s="1">
         <v>408</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D80" s="1">
@@ -4839,7 +4830,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="6" t="s">
         <v>113</v>
       </c>
       <c r="I80">
@@ -4904,7 +4895,7 @@
       <c r="B82" s="1">
         <v>432</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="1">
@@ -4921,7 +4912,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I82">
@@ -4986,7 +4977,7 @@
       <c r="B84" s="1">
         <v>456</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D84" s="1">
@@ -5003,7 +4994,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="6" t="s">
         <v>138</v>
       </c>
       <c r="I84">
@@ -5068,7 +5059,7 @@
       <c r="B86" s="1">
         <v>480</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D86" s="1">
@@ -5085,7 +5076,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="6" t="s">
         <v>117</v>
       </c>
       <c r="I86">
@@ -5150,7 +5141,7 @@
       <c r="B88" s="1">
         <v>504</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D88" s="1">
@@ -5167,7 +5158,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="6" t="s">
         <v>119</v>
       </c>
       <c r="I88">
@@ -5232,7 +5223,7 @@
       <c r="B90" s="1">
         <v>528</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="1">
@@ -5249,7 +5240,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="6" t="s">
         <v>121</v>
       </c>
       <c r="I90">
@@ -5314,7 +5305,7 @@
       <c r="B92" s="1">
         <v>552</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D92" s="1">
@@ -5331,7 +5322,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="6" t="s">
         <v>123</v>
       </c>
       <c r="I92">
@@ -5396,7 +5387,7 @@
       <c r="B94" s="1">
         <v>576</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D94" s="1">
@@ -5413,7 +5404,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I94">
@@ -5478,7 +5469,7 @@
       <c r="B96" s="1">
         <v>600</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1">
@@ -5495,7 +5486,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="6" t="s">
         <v>127</v>
       </c>
       <c r="I96">
@@ -5560,7 +5551,7 @@
       <c r="B98" s="1">
         <v>624</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D98" s="1">
@@ -5577,7 +5568,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="6" t="s">
         <v>129</v>
       </c>
       <c r="I98">
@@ -5642,7 +5633,7 @@
       <c r="B100" s="1">
         <v>648</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D100" s="1">
@@ -5659,7 +5650,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="6" t="s">
         <v>131</v>
       </c>
       <c r="I100">
@@ -5724,7 +5715,7 @@
       <c r="B102" s="1">
         <v>672</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D102" s="1">
@@ -5741,7 +5732,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="6" t="s">
         <v>133</v>
       </c>
       <c r="I102">
@@ -5806,7 +5797,7 @@
       <c r="B104" s="1">
         <v>696</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="D104" s="1">
@@ -5823,7 +5814,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="I104">
@@ -5888,7 +5879,7 @@
       <c r="B106" s="1">
         <v>720</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D106" s="1">
@@ -5905,7 +5896,7 @@
         <f>1/3650</f>
         <v>2.7397260273972601E-4</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="6" t="s">
         <v>139</v>
       </c>
       <c r="I106">
@@ -5970,7 +5961,7 @@
       <c r="B108" s="1">
         <v>960</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D108" s="1">
@@ -5987,7 +5978,7 @@
         <f t="shared" si="8"/>
         <v>2.7397260273972601E-4</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="6" t="s">
         <v>141</v>
       </c>
       <c r="I108">
@@ -6012,7 +6003,7 @@
         <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="7"/>
@@ -6029,7 +6020,7 @@
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I109">
         <v>16</v>
@@ -6048,12 +6039,12 @@
     <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="3"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="6"/>
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6494,187 +6485,187 @@
       <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="9"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="9"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="9"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="9"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="9"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="9"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="9"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="9"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="9"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="9"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="9"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="9"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
+      <c r="A110" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6685,7 +6676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11494,7 +11485,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B50">
@@ -11690,7 +11681,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B52">
@@ -11886,7 +11877,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B54">
@@ -12082,7 +12073,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B56">
@@ -12278,7 +12269,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B58">
@@ -12474,7 +12465,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B60">
@@ -12670,7 +12661,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B62">
@@ -12866,7 +12857,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B64">
@@ -13062,7 +13053,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B66">
@@ -13258,7 +13249,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B68">
@@ -13454,7 +13445,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B70">
@@ -13650,7 +13641,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B72">
@@ -13846,7 +13837,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B74">
@@ -14042,7 +14033,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B76">
@@ -14238,7 +14229,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B78">
@@ -14434,7 +14425,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B80">
@@ -14630,7 +14621,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B82">
@@ -14826,7 +14817,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B84">
@@ -15022,7 +15013,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B86">
@@ -15218,7 +15209,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B88">
@@ -15414,7 +15405,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B90">
@@ -15610,7 +15601,7 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B92">
@@ -15806,7 +15797,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B94">
@@ -16002,7 +15993,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B96">
@@ -16198,7 +16189,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B98">
@@ -16394,7 +16385,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B100">
@@ -16590,7 +16581,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B102">
@@ -16786,7 +16777,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B104">
@@ -16982,7 +16973,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B106">
@@ -17178,7 +17169,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B108">
@@ -17277,7 +17268,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B109">
         <v>0.19442177668345256</v>
@@ -17374,7 +17365,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
+      <c r="A110" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AF110">
@@ -17656,187 +17647,187 @@
       <c r="AW1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>85</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="6" t="s">
         <v>89</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="6" t="s">
         <v>91</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>95</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="6" t="s">
         <v>97</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="6" t="s">
         <v>99</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="6" t="s">
         <v>101</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="6" t="s">
         <v>103</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="6" t="s">
         <v>105</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="6" t="s">
         <v>107</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="6" t="s">
         <v>109</v>
       </c>
       <c r="BY1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>111</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="6" t="s">
         <v>113</v>
       </c>
       <c r="CC1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="6" t="s">
         <v>115</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="6" t="s">
         <v>138</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="6" t="s">
         <v>117</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>119</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="6" t="s">
         <v>121</v>
       </c>
       <c r="CM1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="6" t="s">
         <v>123</v>
       </c>
       <c r="CO1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="6" t="s">
         <v>125</v>
       </c>
       <c r="CQ1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CR1" s="6" t="s">
         <v>127</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="6" t="s">
         <v>129</v>
       </c>
       <c r="CU1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="6" t="s">
         <v>131</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="CY1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="6" t="s">
         <v>135</v>
       </c>
       <c r="DA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DB1" s="6" t="s">
         <v>139</v>
       </c>
       <c r="DC1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DD1" s="6" t="s">
         <v>141</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF1" s="9"/>
+        <v>215</v>
+      </c>
+      <c r="DF1" s="6"/>
     </row>
     <row r="2" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -33631,7 +33622,7 @@
       </c>
     </row>
     <row r="50" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B50">
@@ -34289,7 +34280,7 @@
       </c>
     </row>
     <row r="52" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B52">
@@ -34947,7 +34938,7 @@
       </c>
     </row>
     <row r="54" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B54">
@@ -35605,7 +35596,7 @@
       </c>
     </row>
     <row r="56" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B56">
@@ -36263,7 +36254,7 @@
       </c>
     </row>
     <row r="58" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B58">
@@ -36921,7 +36912,7 @@
       </c>
     </row>
     <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B60">
@@ -37579,7 +37570,7 @@
       </c>
     </row>
     <row r="62" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B62">
@@ -38237,7 +38228,7 @@
       </c>
     </row>
     <row r="64" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B64">
@@ -38895,7 +38886,7 @@
       </c>
     </row>
     <row r="66" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B66">
@@ -39553,7 +39544,7 @@
       </c>
     </row>
     <row r="68" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B68">
@@ -40211,7 +40202,7 @@
       </c>
     </row>
     <row r="70" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B70">
@@ -40869,7 +40860,7 @@
       </c>
     </row>
     <row r="72" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B72">
@@ -41527,7 +41518,7 @@
       </c>
     </row>
     <row r="74" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B74">
@@ -42185,7 +42176,7 @@
       </c>
     </row>
     <row r="76" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B76">
@@ -42843,7 +42834,7 @@
       </c>
     </row>
     <row r="78" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B78">
@@ -43501,7 +43492,7 @@
       </c>
     </row>
     <row r="80" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B80">
@@ -44159,7 +44150,7 @@
       </c>
     </row>
     <row r="82" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B82">
@@ -44817,7 +44808,7 @@
       </c>
     </row>
     <row r="84" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B84">
@@ -45475,7 +45466,7 @@
       </c>
     </row>
     <row r="86" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B86">
@@ -46133,7 +46124,7 @@
       </c>
     </row>
     <row r="88" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B88">
@@ -46791,7 +46782,7 @@
       </c>
     </row>
     <row r="90" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B90">
@@ -47449,7 +47440,7 @@
       </c>
     </row>
     <row r="92" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B92">
@@ -48107,7 +48098,7 @@
       </c>
     </row>
     <row r="94" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B94">
@@ -48765,7 +48756,7 @@
       </c>
     </row>
     <row r="96" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B96">
@@ -49423,7 +49414,7 @@
       </c>
     </row>
     <row r="98" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B98">
@@ -50081,7 +50072,7 @@
       </c>
     </row>
     <row r="100" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B100">
@@ -50739,7 +50730,7 @@
       </c>
     </row>
     <row r="102" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B102">
@@ -51397,7 +51388,7 @@
       </c>
     </row>
     <row r="104" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B104">
@@ -52055,7 +52046,7 @@
       </c>
     </row>
     <row r="106" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B106">
@@ -52713,7 +52704,7 @@
       </c>
     </row>
     <row r="108" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B108">
@@ -53043,7 +53034,7 @@
     </row>
     <row r="109" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B109">
         <v>0.27893747218213799</v>
@@ -53371,7 +53362,7 @@
       </c>
     </row>
     <row r="110" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="5" t="s">

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C88BA-3DC5-694F-8445-1D3725E4C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68D198-DF5A-E443-B9E6-F4051A2E4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -1146,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1553,8 +1553,8 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
         <f>1/365</f>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" ref="G51:G105" si="5">1/365</f>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="5"/>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="5"/>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="5"/>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="5"/>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="5"/>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="5"/>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="5"/>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="5"/>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="5"/>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="5"/>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="5"/>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="5"/>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="5"/>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="5"/>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="5"/>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="5"/>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="5"/>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="5"/>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="5"/>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="5"/>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="5"/>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="5"/>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="5"/>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="5"/>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="5"/>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="5"/>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="5"/>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="5"/>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="5"/>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="5"/>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="5"/>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="5"/>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="5"/>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="5"/>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="5"/>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="5"/>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="5"/>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="5"/>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="5"/>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="5"/>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="5"/>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="5"/>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="5"/>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="5"/>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="5"/>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="5"/>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="5"/>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="5"/>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="5"/>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="5"/>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="5"/>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="5"/>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1">
         <f>1/3650</f>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" ref="G107:G109" si="8">1/3650</f>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" si="8"/>
@@ -6006,18 +6006,16 @@
         <v>215</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="7"/>
-        <v>2.7397260273972601E-4</v>
+        <v>0</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
       </c>
       <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
         <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <f t="shared" si="8"/>
-        <v>2.7397260273972601E-4</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>216</v>
@@ -6676,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheetalsilal/Git/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68D198-DF5A-E443-B9E6-F4051A2E4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB9AA1-5601-EF42-A0B9-2A80F5BABD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="228">
   <si>
     <t>param</t>
   </si>
@@ -500,9 +500,6 @@
     <t>vdeath</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>0.6</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
   </si>
   <si>
     <t>transmission probability</t>
-  </si>
-  <si>
-    <t>1.5</t>
   </si>
   <si>
     <t>age</t>
@@ -824,10 +818,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -835,6 +828,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1052,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1068,28 +1063,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1100,42 +1095,42 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>191</v>
+      <c r="C3" s="10">
+        <v>1.5</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1158,388 +1153,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>199</v>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>199</v>
+      <c r="F3" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>199</v>
+      <c r="F4" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>199</v>
+      <c r="E5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>199</v>
+      <c r="F6" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>199</v>
+      <c r="F7" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>199</v>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>199</v>
+      <c r="E9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>199</v>
+      <c r="E10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>199</v>
+      <c r="A11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>199</v>
+      <c r="D12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>199</v>
+      <c r="F13" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>199</v>
+      <c r="F14" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>199</v>
+      <c r="F15" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>199</v>
+      <c r="F16" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>199</v>
+      <c r="F17" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>199</v>
+      <c r="F18" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>199</v>
+      <c r="F19" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1553,45 +1548,45 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1605,13 +1600,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f>365/30</f>
+        <v>12.166666666666666</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" ref="F2:F13" si="0">1-EXP(-0.95*A2)</f>
         <v>0.61325897654549877</v>
       </c>
@@ -1643,25 +1638,25 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" ref="D3:D49" si="1">365/30</f>
+        <v>12.166666666666666</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>0.85043138077736491</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G49" si="1">1/30</f>
+        <f t="shared" ref="G3:G49" si="2">1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3">
@@ -1671,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">J3/120</f>
+        <f t="shared" ref="K3:K66" si="3">J3/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L3">
@@ -1685,25 +1680,25 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D49" si="3">1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.94215567912516152</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4">
@@ -1713,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L4">
@@ -1727,25 +1722,25 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>0.97762922814383435</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5">
@@ -1755,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L5">
@@ -1769,25 +1764,25 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.99134830479687941</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I6">
@@ -1797,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L6">
@@ -1811,26 +1806,26 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E7" s="1">
         <f>0.847*0.97*0.85</f>
         <v>0.6983514999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>0.99665403454252877</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I7">
@@ -1840,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L7">
@@ -1854,25 +1849,25 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0.99870597789453419</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I8">
@@ -1882,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L8">
@@ -1896,25 +1891,25 @@
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>0.99949954856655943</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I9">
@@ -1924,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L9">
@@ -1938,25 +1933,25 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>0.99980645490044195</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10">
@@ -1966,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L10">
@@ -1980,25 +1975,25 @@
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.99992514817011235</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I11">
@@ -2008,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L11">
@@ -2022,25 +2017,25 @@
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>0.99997105172670175</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I12">
@@ -2050,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L12">
@@ -2064,26 +2059,26 @@
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E13" s="1">
         <f>0.72*0.97*0.85</f>
         <v>0.59363999999999995</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>0.99998880451515737</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I13">
@@ -2093,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L13">
@@ -2107,12 +2102,12 @@
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2121,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I14">
@@ -2134,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L14">
@@ -2148,12 +2143,12 @@
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2162,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I15">
@@ -2175,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L15">
@@ -2189,12 +2184,12 @@
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2203,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I16">
@@ -2216,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L16">
@@ -2230,12 +2225,12 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2244,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I17">
@@ -2257,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L17">
@@ -2271,12 +2266,12 @@
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2285,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I18">
@@ -2298,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L18">
@@ -2312,12 +2307,12 @@
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2326,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I19">
@@ -2339,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L19">
@@ -2353,12 +2348,12 @@
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -2367,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I20">
@@ -2380,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L20">
@@ -2394,12 +2389,12 @@
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2408,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I21">
@@ -2421,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L21">
@@ -2435,12 +2430,12 @@
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -2449,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I22">
@@ -2462,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L22">
@@ -2476,12 +2471,12 @@
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2490,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I23">
@@ -2503,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L23">
@@ -2517,12 +2512,12 @@
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2531,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I24">
@@ -2544,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L24">
@@ -2558,12 +2553,12 @@
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -2572,10 +2567,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I25">
@@ -2585,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L25">
@@ -2599,12 +2594,12 @@
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2613,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I26">
@@ -2626,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L26">
@@ -2640,12 +2635,12 @@
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2654,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I27">
@@ -2667,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L27">
@@ -2681,12 +2676,12 @@
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2695,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I28">
@@ -2708,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L28">
@@ -2722,12 +2717,12 @@
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2736,10 +2731,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I29">
@@ -2749,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L29">
@@ -2763,12 +2758,12 @@
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2777,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I30">
@@ -2790,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L30">
@@ -2804,12 +2799,12 @@
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2818,10 +2813,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I31">
@@ -2831,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L31">
@@ -2845,12 +2840,12 @@
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2859,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I32">
@@ -2872,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L32">
@@ -2886,12 +2881,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2900,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I33">
@@ -2913,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L33">
@@ -2927,12 +2922,12 @@
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2941,10 +2936,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I34">
@@ -2954,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L34">
@@ -2968,12 +2963,12 @@
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2982,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I35">
@@ -2995,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L35">
@@ -3009,12 +3004,12 @@
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -3023,10 +3018,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I36">
@@ -3036,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L36">
@@ -3050,12 +3045,12 @@
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -3064,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I37">
@@ -3077,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L37">
@@ -3091,12 +3086,12 @@
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -3105,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I38">
@@ -3118,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L38">
@@ -3132,12 +3127,12 @@
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -3146,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I39">
@@ -3159,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L39">
@@ -3173,12 +3168,12 @@
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3187,10 +3182,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I40">
@@ -3200,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L40">
@@ -3214,12 +3209,12 @@
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -3228,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I41">
@@ -3241,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L41">
@@ -3255,12 +3250,12 @@
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3269,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I42">
@@ -3282,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L42">
@@ -3296,12 +3291,12 @@
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -3310,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I43">
@@ -3323,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L43">
@@ -3337,12 +3332,12 @@
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3351,10 +3346,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I44">
@@ -3364,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L44">
@@ -3378,12 +3373,12 @@
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3392,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I45">
@@ -3405,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L45">
@@ -3419,12 +3414,12 @@
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3433,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I46">
@@ -3446,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L46">
@@ -3460,12 +3455,12 @@
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3474,10 +3469,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I47">
@@ -3487,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L47">
@@ -3501,12 +3496,12 @@
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -3515,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I48">
@@ -3528,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L48">
@@ -3546,8 +3541,8 @@
         <v>12</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>12.166666666666666</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -3556,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -3569,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="L49">
@@ -3583,12 +3578,11 @@
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="1">
-        <f>1/365</f>
-        <v>2.7397260273972603E-3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -3600,7 +3594,7 @@
         <f>1/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I50">
@@ -3610,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L50">
@@ -3628,8 +3622,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ref="D51:D105" si="4">1/365</f>
-        <v>2.7397260273972603E-3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3638,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" ref="G51:G105" si="5">1/365</f>
+        <f t="shared" ref="G51:G105" si="4">1/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -3651,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L51">
@@ -3665,24 +3658,23 @@
       <c r="B52" s="1">
         <v>72</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I52">
@@ -3692,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L52">
@@ -3710,19 +3702,18 @@
         <v>86</v>
       </c>
       <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H53" s="1" t="s">
         <v>86</v>
       </c>
@@ -3733,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L53">
@@ -3747,24 +3738,23 @@
       <c r="B54" s="1">
         <v>96</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I54">
@@ -3774,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L54">
@@ -3792,19 +3782,18 @@
         <v>88</v>
       </c>
       <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H55" s="1" t="s">
         <v>88</v>
       </c>
@@ -3815,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L55">
@@ -3829,24 +3818,23 @@
       <c r="B56" s="1">
         <v>120</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I56">
@@ -3856,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L56">
@@ -3874,19 +3862,18 @@
         <v>90</v>
       </c>
       <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H57" s="1" t="s">
         <v>90</v>
       </c>
@@ -3897,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L57">
@@ -3911,24 +3898,23 @@
       <c r="B58" s="1">
         <v>144</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I58">
@@ -3938,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L58">
@@ -3956,19 +3942,18 @@
         <v>92</v>
       </c>
       <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H59" s="1" t="s">
         <v>92</v>
       </c>
@@ -3979,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L59">
@@ -3993,24 +3978,23 @@
       <c r="B60" s="1">
         <v>168</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I60">
@@ -4020,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L60">
@@ -4038,19 +4022,18 @@
         <v>94</v>
       </c>
       <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H61" s="1" t="s">
         <v>94</v>
       </c>
@@ -4061,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L61">
@@ -4075,24 +4058,23 @@
       <c r="B62" s="1">
         <v>192</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I62">
@@ -4102,7 +4084,7 @@
         <v>12</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L62">
@@ -4120,19 +4102,18 @@
         <v>96</v>
       </c>
       <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H63" s="1" t="s">
         <v>96</v>
       </c>
@@ -4143,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L63">
@@ -4157,24 +4138,23 @@
       <c r="B64" s="1">
         <v>216</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I64">
@@ -4184,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L64">
@@ -4202,19 +4182,18 @@
         <v>98</v>
       </c>
       <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>98</v>
       </c>
@@ -4225,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L65">
@@ -4239,24 +4218,23 @@
       <c r="B66" s="1">
         <v>240</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>99</v>
       </c>
       <c r="I66">
@@ -4266,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L66">
@@ -4284,19 +4262,18 @@
         <v>100</v>
       </c>
       <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H67" s="1" t="s">
         <v>100</v>
       </c>
@@ -4307,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K109" si="6">J67/120</f>
+        <f t="shared" ref="K67:K109" si="5">J67/120</f>
         <v>0.1</v>
       </c>
       <c r="L67">
@@ -4321,24 +4298,23 @@
       <c r="B68" s="1">
         <v>264</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>101</v>
       </c>
       <c r="I68">
@@ -4348,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="K68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L68">
@@ -4366,19 +4342,18 @@
         <v>102</v>
       </c>
       <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H69" s="1" t="s">
         <v>102</v>
       </c>
@@ -4389,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="K69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L69">
@@ -4403,24 +4378,23 @@
       <c r="B70" s="1">
         <v>288</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>103</v>
       </c>
       <c r="I70">
@@ -4430,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="K70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L70">
@@ -4448,19 +4422,18 @@
         <v>104</v>
       </c>
       <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H71" s="1" t="s">
         <v>104</v>
       </c>
@@ -4471,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="K71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L71">
@@ -4485,24 +4458,23 @@
       <c r="B72" s="1">
         <v>312</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I72">
@@ -4512,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="K72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L72">
@@ -4530,19 +4502,18 @@
         <v>106</v>
       </c>
       <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H73" s="1" t="s">
         <v>106</v>
       </c>
@@ -4553,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="K73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L73">
@@ -4567,24 +4538,23 @@
       <c r="B74" s="1">
         <v>336</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="5" t="s">
         <v>107</v>
       </c>
       <c r="I74">
@@ -4594,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="K74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L74">
@@ -4612,19 +4582,18 @@
         <v>108</v>
       </c>
       <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H75" s="1" t="s">
         <v>108</v>
       </c>
@@ -4635,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L75">
@@ -4649,24 +4618,23 @@
       <c r="B76" s="1">
         <v>360</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I76">
@@ -4676,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="K76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L76">
@@ -4694,19 +4662,18 @@
         <v>110</v>
       </c>
       <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H77" s="1" t="s">
         <v>110</v>
       </c>
@@ -4717,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="K77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L77">
@@ -4731,24 +4698,23 @@
       <c r="B78" s="1">
         <v>384</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="5" t="s">
         <v>111</v>
       </c>
       <c r="I78">
@@ -4758,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L78">
@@ -4776,19 +4742,18 @@
         <v>112</v>
       </c>
       <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>112</v>
       </c>
@@ -4799,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="K79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L79">
@@ -4813,24 +4778,23 @@
       <c r="B80" s="1">
         <v>408</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I80">
@@ -4840,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="K80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L80">
@@ -4858,19 +4822,18 @@
         <v>114</v>
       </c>
       <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H81" s="1" t="s">
         <v>114</v>
       </c>
@@ -4881,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="K81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L81">
@@ -4895,24 +4858,23 @@
       <c r="B82" s="1">
         <v>432</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="5" t="s">
         <v>115</v>
       </c>
       <c r="I82">
@@ -4922,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="K82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L82">
@@ -4940,19 +4902,18 @@
         <v>137</v>
       </c>
       <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
-      <c r="G83" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H83" s="1" t="s">
         <v>137</v>
       </c>
@@ -4963,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="K83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L83">
@@ -4977,24 +4938,23 @@
       <c r="B84" s="1">
         <v>456</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>1</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="5" t="s">
         <v>138</v>
       </c>
       <c r="I84">
@@ -5004,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="K84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L84">
@@ -5022,19 +4982,18 @@
         <v>116</v>
       </c>
       <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H85" s="1" t="s">
         <v>116</v>
       </c>
@@ -5045,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="K85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L85">
@@ -5059,24 +5018,23 @@
       <c r="B86" s="1">
         <v>480</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-      <c r="G86" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="5" t="s">
         <v>117</v>
       </c>
       <c r="I86">
@@ -5086,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="K86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L86">
@@ -5104,19 +5062,18 @@
         <v>118</v>
       </c>
       <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H87" s="1" t="s">
         <v>118</v>
       </c>
@@ -5127,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="K87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L87">
@@ -5141,24 +5098,23 @@
       <c r="B88" s="1">
         <v>504</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I88">
@@ -5168,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="K88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L88">
@@ -5186,19 +5142,18 @@
         <v>120</v>
       </c>
       <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H89" s="1" t="s">
         <v>120</v>
       </c>
@@ -5209,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="K89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L89">
@@ -5223,24 +5178,23 @@
       <c r="B90" s="1">
         <v>528</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I90">
@@ -5250,7 +5204,7 @@
         <v>12</v>
       </c>
       <c r="K90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L90">
@@ -5268,19 +5222,18 @@
         <v>122</v>
       </c>
       <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H91" s="1" t="s">
         <v>122</v>
       </c>
@@ -5291,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="K91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L91">
@@ -5305,24 +5258,23 @@
       <c r="B92" s="1">
         <v>552</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="5" t="s">
         <v>123</v>
       </c>
       <c r="I92">
@@ -5332,7 +5284,7 @@
         <v>12</v>
       </c>
       <c r="K92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L92">
@@ -5350,19 +5302,18 @@
         <v>124</v>
       </c>
       <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H93" s="1" t="s">
         <v>124</v>
       </c>
@@ -5373,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="K93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L93">
@@ -5387,24 +5338,23 @@
       <c r="B94" s="1">
         <v>576</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="G94" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I94">
@@ -5414,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L94">
@@ -5432,19 +5382,18 @@
         <v>126</v>
       </c>
       <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H95" s="1" t="s">
         <v>126</v>
       </c>
@@ -5455,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L95">
@@ -5469,24 +5418,23 @@
       <c r="B96" s="1">
         <v>600</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E96" s="1">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I96">
@@ -5496,7 +5444,7 @@
         <v>12</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L96">
@@ -5514,19 +5462,18 @@
         <v>128</v>
       </c>
       <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H97" s="1" t="s">
         <v>128</v>
       </c>
@@ -5537,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L97">
@@ -5551,24 +5498,23 @@
       <c r="B98" s="1">
         <v>624</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1</v>
-      </c>
-      <c r="G98" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="5" t="s">
         <v>129</v>
       </c>
       <c r="I98">
@@ -5578,7 +5524,7 @@
         <v>12</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L98">
@@ -5596,19 +5542,18 @@
         <v>130</v>
       </c>
       <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H99" s="1" t="s">
         <v>130</v>
       </c>
@@ -5619,7 +5564,7 @@
         <v>12</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L99">
@@ -5633,24 +5578,23 @@
       <c r="B100" s="1">
         <v>648</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="5" t="s">
         <v>131</v>
       </c>
       <c r="I100">
@@ -5660,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L100">
@@ -5678,19 +5622,18 @@
         <v>132</v>
       </c>
       <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H101" s="1" t="s">
         <v>132</v>
       </c>
@@ -5701,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L101">
@@ -5715,24 +5658,23 @@
       <c r="B102" s="1">
         <v>672</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="5" t="s">
         <v>133</v>
       </c>
       <c r="I102">
@@ -5742,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L102">
@@ -5760,19 +5702,18 @@
         <v>134</v>
       </c>
       <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H103" s="1" t="s">
         <v>134</v>
       </c>
@@ -5783,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L103">
@@ -5797,24 +5738,23 @@
       <c r="B104" s="1">
         <v>696</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E104" s="1">
-        <v>0</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="5" t="s">
         <v>135</v>
       </c>
       <c r="I104">
@@ -5824,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L104">
@@ -5842,19 +5782,18 @@
         <v>136</v>
       </c>
       <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
       <c r="H105" s="1" t="s">
         <v>136</v>
       </c>
@@ -5865,7 +5804,7 @@
         <v>120</v>
       </c>
       <c r="K105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L105">
@@ -5879,12 +5818,12 @@
       <c r="B106" s="1">
         <v>720</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D106" s="1">
-        <f>1/3650</f>
-        <v>2.7397260273972601E-4</v>
+        <f>1/10</f>
+        <v>0.1</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -5896,7 +5835,7 @@
         <f>1/3650</f>
         <v>2.7397260273972601E-4</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H106" s="5" t="s">
         <v>139</v>
       </c>
       <c r="I106">
@@ -5906,7 +5845,7 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L106">
@@ -5924,8 +5863,8 @@
         <v>140</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" ref="D107:D109" si="7">1/3650</f>
-        <v>2.7397260273972601E-4</v>
+        <f t="shared" ref="D107:D109" si="6">1/10</f>
+        <v>0.1</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -5934,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" ref="G107:G109" si="8">1/3650</f>
+        <f t="shared" ref="G107:G108" si="7">1/3650</f>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -5947,7 +5886,7 @@
         <v>120</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L107">
@@ -5961,24 +5900,24 @@
       <c r="B108" s="1">
         <v>960</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D108" s="1">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
         <f t="shared" si="7"/>
         <v>2.7397260273972601E-4</v>
       </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1">
-        <f t="shared" si="8"/>
-        <v>2.7397260273972601E-4</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="H108" s="5" t="s">
         <v>141</v>
       </c>
       <c r="I108">
@@ -5988,7 +5927,7 @@
         <v>120</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L108">
@@ -6003,10 +5942,11 @@
         <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.1</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -6018,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I109">
         <v>16</v>
@@ -6027,7 +5967,7 @@
         <v>120</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L109">
@@ -6037,12 +5977,12 @@
     <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="3"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="6"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="5"/>
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6139,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0439F58-195A-FC4B-BFD4-9EADB89FDAA6}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6149,97 +6089,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2000</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>2001</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>2002</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>2003</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>2004</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>2005</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>2006</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>2007</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>2008</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>2009</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>2010</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>2011</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>2012</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>2013</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>2014</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>2015</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>2016</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>2017</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>2018</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <v>2019</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>2020</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <v>2021</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="2">
         <v>2022</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="2">
         <v>2023</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="2">
         <v>2024</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="2">
         <v>2025</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="2">
         <v>2026</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <v>2027</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <v>2028</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <v>2029</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>2030</v>
       </c>
     </row>
@@ -6342,328 +6282,328 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="6"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
+      <c r="A82" s="5"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
+      <c r="A84" s="5"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="6"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="6"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
+      <c r="A102" s="5"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6"/>
+      <c r="A104" s="5"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="6"/>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="6"/>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="6"/>
+      <c r="A110" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6674,8 +6614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6877,7 +6817,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -6975,7 +6915,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -7073,7 +7013,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -7171,7 +7111,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -7269,7 +7209,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -7367,7 +7307,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8">
@@ -7465,7 +7405,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9">
@@ -7563,7 +7503,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10">
@@ -7661,7 +7601,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11">
@@ -7759,7 +7699,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12">
@@ -7857,7 +7797,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13">
@@ -7955,7 +7895,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14">
@@ -8053,7 +7993,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15">
@@ -8151,7 +8091,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16">
@@ -8249,7 +8189,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17">
@@ -8347,7 +8287,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B18">
@@ -8445,7 +8385,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19">
@@ -8543,7 +8483,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20">
@@ -8641,7 +8581,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B21">
@@ -8739,7 +8679,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22">
@@ -8837,7 +8777,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23">
@@ -8935,7 +8875,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24">
@@ -9033,7 +8973,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B25">
@@ -9131,7 +9071,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26">
@@ -9229,7 +9169,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B27">
@@ -9327,7 +9267,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B28">
@@ -9425,7 +9365,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B29">
@@ -9523,7 +9463,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B30">
@@ -9621,7 +9561,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B31">
@@ -9719,7 +9659,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B32">
@@ -9817,7 +9757,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B33">
@@ -9915,7 +9855,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B34">
@@ -10013,7 +9953,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B35">
@@ -10111,7 +10051,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B36">
@@ -10209,7 +10149,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B37">
@@ -10307,7 +10247,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B38">
@@ -10405,7 +10345,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B39">
@@ -10503,7 +10443,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B40">
@@ -10601,7 +10541,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B41">
@@ -10699,7 +10639,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B42">
@@ -10797,7 +10737,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B43">
@@ -10895,7 +10835,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B44">
@@ -10993,7 +10933,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B45">
@@ -11091,7 +11031,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B46">
@@ -11189,7 +11129,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B47">
@@ -11287,7 +11227,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B48">
@@ -11483,7 +11423,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B50">
@@ -11679,7 +11619,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B52">
@@ -11875,7 +11815,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B54">
@@ -12071,7 +12011,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B56">
@@ -12267,7 +12207,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B58">
@@ -12463,7 +12403,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B60">
@@ -12659,7 +12599,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B62">
@@ -12855,7 +12795,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B64">
@@ -13051,7 +12991,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B66">
@@ -13247,7 +13187,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B68">
@@ -13443,7 +13383,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B70">
@@ -13639,7 +13579,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B72">
@@ -13835,7 +13775,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B74">
@@ -14031,7 +13971,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B76">
@@ -14227,7 +14167,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B78">
@@ -14423,7 +14363,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B80">
@@ -14619,7 +14559,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B82">
@@ -14815,7 +14755,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B84">
@@ -15011,7 +14951,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B86">
@@ -15207,7 +15147,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B88">
@@ -15403,7 +15343,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B90">
@@ -15599,7 +15539,7 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B92">
@@ -15795,7 +15735,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B94">
@@ -15991,7 +15931,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B96">
@@ -16187,7 +16127,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B98">
@@ -16383,7 +16323,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B100">
@@ -16579,7 +16519,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B102">
@@ -16775,7 +16715,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B104">
@@ -16971,8 +16911,8 @@
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A106" s="6" t="s">
-        <v>158</v>
+      <c r="A106" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B106">
         <v>2.887969122884846E-2</v>
@@ -17070,7 +17010,7 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107">
         <v>5.3763792845991289E-2</v>
@@ -17167,8 +17107,8 @@
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A108" s="6" t="s">
-        <v>160</v>
+      <c r="A108" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="B108">
         <v>0.11390174303732555</v>
@@ -17266,7 +17206,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109">
         <v>0.19442177668345256</v>
@@ -17363,7 +17303,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A110" s="6"/>
+      <c r="A110" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AF110">
@@ -17411,21 +17351,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="b">
@@ -17433,10 +17373,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="b">
@@ -17444,10 +17384,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="b">
@@ -17455,10 +17395,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" t="b">
@@ -17466,10 +17406,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="b">
@@ -17499,333 +17439,333 @@
   <sheetData>
     <row r="1" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="5" t="s">
         <v>83</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>85</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="5" t="s">
         <v>91</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
         <v>93</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>95</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="5" t="s">
         <v>97</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="5" t="s">
         <v>99</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="5" t="s">
         <v>101</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BT1" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" s="5" t="s">
         <v>109</v>
       </c>
       <c r="BY1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>111</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" s="5" t="s">
         <v>113</v>
       </c>
       <c r="CC1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CD1" s="5" t="s">
         <v>115</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CF1" s="5" t="s">
         <v>138</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CH1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>119</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CL1" s="5" t="s">
         <v>121</v>
       </c>
       <c r="CM1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CN1" s="5" t="s">
         <v>123</v>
       </c>
       <c r="CO1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CP1" s="5" t="s">
         <v>125</v>
       </c>
       <c r="CQ1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CR1" s="5" t="s">
         <v>127</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CT1" s="5" t="s">
         <v>129</v>
       </c>
       <c r="CU1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CV1" s="5" t="s">
         <v>131</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="CX1" s="5" t="s">
         <v>133</v>
       </c>
       <c r="CY1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CZ1" s="6" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>135</v>
       </c>
       <c r="DA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DB1" s="6" t="s">
+      <c r="DB1" s="5" t="s">
         <v>139</v>
       </c>
       <c r="DC1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="DD1" s="6" t="s">
+      <c r="DD1" s="5" t="s">
         <v>141</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="DF1" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="DF1" s="5"/>
     </row>
     <row r="2" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -18157,7 +18097,7 @@
       </c>
     </row>
     <row r="3" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -18486,7 +18426,7 @@
       </c>
     </row>
     <row r="4" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -18815,7 +18755,7 @@
       </c>
     </row>
     <row r="5" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -19144,7 +19084,7 @@
       </c>
     </row>
     <row r="6" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -19473,7 +19413,7 @@
       </c>
     </row>
     <row r="7" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -19802,7 +19742,7 @@
       </c>
     </row>
     <row r="8" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8">
@@ -20131,7 +20071,7 @@
       </c>
     </row>
     <row r="9" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9">
@@ -20460,7 +20400,7 @@
       </c>
     </row>
     <row r="10" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10">
@@ -20789,7 +20729,7 @@
       </c>
     </row>
     <row r="11" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11">
@@ -21118,7 +21058,7 @@
       </c>
     </row>
     <row r="12" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12">
@@ -21447,7 +21387,7 @@
       </c>
     </row>
     <row r="13" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13">
@@ -21776,7 +21716,7 @@
       </c>
     </row>
     <row r="14" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14">
@@ -22105,7 +22045,7 @@
       </c>
     </row>
     <row r="15" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15">
@@ -22434,7 +22374,7 @@
       </c>
     </row>
     <row r="16" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16">
@@ -22763,7 +22703,7 @@
       </c>
     </row>
     <row r="17" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17">
@@ -23092,7 +23032,7 @@
       </c>
     </row>
     <row r="18" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B18">
@@ -23421,7 +23361,7 @@
       </c>
     </row>
     <row r="19" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19">
@@ -23750,7 +23690,7 @@
       </c>
     </row>
     <row r="20" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20">
@@ -24079,7 +24019,7 @@
       </c>
     </row>
     <row r="21" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B21">
@@ -24408,7 +24348,7 @@
       </c>
     </row>
     <row r="22" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22">
@@ -24737,7 +24677,7 @@
       </c>
     </row>
     <row r="23" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23">
@@ -25066,7 +25006,7 @@
       </c>
     </row>
     <row r="24" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24">
@@ -25395,7 +25335,7 @@
       </c>
     </row>
     <row r="25" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B25">
@@ -25724,7 +25664,7 @@
       </c>
     </row>
     <row r="26" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26">
@@ -26053,7 +25993,7 @@
       </c>
     </row>
     <row r="27" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B27">
@@ -26382,7 +26322,7 @@
       </c>
     </row>
     <row r="28" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B28">
@@ -26711,7 +26651,7 @@
       </c>
     </row>
     <row r="29" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B29">
@@ -27040,7 +26980,7 @@
       </c>
     </row>
     <row r="30" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B30">
@@ -27369,7 +27309,7 @@
       </c>
     </row>
     <row r="31" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B31">
@@ -27698,7 +27638,7 @@
       </c>
     </row>
     <row r="32" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B32">
@@ -28027,7 +27967,7 @@
       </c>
     </row>
     <row r="33" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B33">
@@ -28356,7 +28296,7 @@
       </c>
     </row>
     <row r="34" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B34">
@@ -28685,7 +28625,7 @@
       </c>
     </row>
     <row r="35" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B35">
@@ -29014,7 +28954,7 @@
       </c>
     </row>
     <row r="36" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B36">
@@ -29343,7 +29283,7 @@
       </c>
     </row>
     <row r="37" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B37">
@@ -29672,7 +29612,7 @@
       </c>
     </row>
     <row r="38" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B38">
@@ -30001,7 +29941,7 @@
       </c>
     </row>
     <row r="39" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B39">
@@ -30330,7 +30270,7 @@
       </c>
     </row>
     <row r="40" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B40">
@@ -30659,7 +30599,7 @@
       </c>
     </row>
     <row r="41" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B41">
@@ -30988,7 +30928,7 @@
       </c>
     </row>
     <row r="42" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B42">
@@ -31317,7 +31257,7 @@
       </c>
     </row>
     <row r="43" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B43">
@@ -31646,7 +31586,7 @@
       </c>
     </row>
     <row r="44" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B44">
@@ -31975,7 +31915,7 @@
       </c>
     </row>
     <row r="45" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B45">
@@ -32304,7 +32244,7 @@
       </c>
     </row>
     <row r="46" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B46">
@@ -32633,7 +32573,7 @@
       </c>
     </row>
     <row r="47" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B47">
@@ -32962,7 +32902,7 @@
       </c>
     </row>
     <row r="48" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B48">
@@ -33620,7 +33560,7 @@
       </c>
     </row>
     <row r="50" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B50">
@@ -34278,7 +34218,7 @@
       </c>
     </row>
     <row r="52" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B52">
@@ -34936,7 +34876,7 @@
       </c>
     </row>
     <row r="54" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B54">
@@ -35594,7 +35534,7 @@
       </c>
     </row>
     <row r="56" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B56">
@@ -36252,7 +36192,7 @@
       </c>
     </row>
     <row r="58" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B58">
@@ -36910,7 +36850,7 @@
       </c>
     </row>
     <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B60">
@@ -37568,7 +37508,7 @@
       </c>
     </row>
     <row r="62" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B62">
@@ -38226,7 +38166,7 @@
       </c>
     </row>
     <row r="64" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B64">
@@ -38884,7 +38824,7 @@
       </c>
     </row>
     <row r="66" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B66">
@@ -39542,7 +39482,7 @@
       </c>
     </row>
     <row r="68" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B68">
@@ -40200,7 +40140,7 @@
       </c>
     </row>
     <row r="70" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B70">
@@ -40858,7 +40798,7 @@
       </c>
     </row>
     <row r="72" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B72">
@@ -41516,7 +41456,7 @@
       </c>
     </row>
     <row r="74" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B74">
@@ -42174,7 +42114,7 @@
       </c>
     </row>
     <row r="76" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B76">
@@ -42832,7 +42772,7 @@
       </c>
     </row>
     <row r="78" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B78">
@@ -43490,7 +43430,7 @@
       </c>
     </row>
     <row r="80" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B80">
@@ -44148,7 +44088,7 @@
       </c>
     </row>
     <row r="82" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B82">
@@ -44806,7 +44746,7 @@
       </c>
     </row>
     <row r="84" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B84">
@@ -45464,7 +45404,7 @@
       </c>
     </row>
     <row r="86" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B86">
@@ -46122,7 +46062,7 @@
       </c>
     </row>
     <row r="88" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B88">
@@ -46780,7 +46720,7 @@
       </c>
     </row>
     <row r="90" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B90">
@@ -47438,7 +47378,7 @@
       </c>
     </row>
     <row r="92" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B92">
@@ -48096,7 +48036,7 @@
       </c>
     </row>
     <row r="94" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B94">
@@ -48754,7 +48694,7 @@
       </c>
     </row>
     <row r="96" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B96">
@@ -49412,7 +49352,7 @@
       </c>
     </row>
     <row r="98" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B98">
@@ -50070,7 +50010,7 @@
       </c>
     </row>
     <row r="100" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B100">
@@ -50728,7 +50668,7 @@
       </c>
     </row>
     <row r="102" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B102">
@@ -51386,7 +51326,7 @@
       </c>
     </row>
     <row r="104" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B104">
@@ -52044,7 +51984,7 @@
       </c>
     </row>
     <row r="106" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B106">
@@ -52702,7 +52642,7 @@
       </c>
     </row>
     <row r="108" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B108">
@@ -53032,7 +52972,7 @@
     </row>
     <row r="109" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109">
         <v>0.27893747218213799</v>
@@ -53360,41 +53300,41 @@
       </c>
     </row>
     <row r="110" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="6"/>
+      <c r="A110" s="5"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="5" t="s">
-        <v>173</v>
+      <c r="B113" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="3" t="s">
-        <v>179</v>
+      <c r="B114" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="3" t="s">
-        <v>174</v>
+      <c r="B115" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="3" t="s">
-        <v>175</v>
+      <c r="B116" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="3" t="s">
-        <v>176</v>
+      <c r="B117" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="3" t="s">
-        <v>177</v>
+      <c r="B118" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="3" t="s">
-        <v>178</v>
+      <c r="B119" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheetalsilal/Git/RubellaNew/modelStructure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB9AA1-5601-EF42-A0B9-2A80F5BABD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FFCD5-0358-8845-82AF-C6CB0E9EECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Compartments" sheetId="3" r:id="rId6"/>
     <sheet name="contact" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -590,21 +590,6 @@
     <t>u</t>
   </si>
   <si>
-    <t>s[,tic]*M</t>
-  </si>
-  <si>
-    <t>s[,tic]*S</t>
-  </si>
-  <si>
-    <t>s[,tic]*I</t>
-  </si>
-  <si>
-    <t>s[,tic]*R</t>
-  </si>
-  <si>
-    <t>s[,tic]*V</t>
-  </si>
-  <si>
     <t>ptrans</t>
   </si>
   <si>
@@ -689,21 +674,6 @@
     <t>v[,tic]*u*S</t>
   </si>
   <si>
-    <t>(1-v[,tic])*u*M</t>
-  </si>
-  <si>
-    <t>(1-v[,tic])*u*S</t>
-  </si>
-  <si>
-    <t>u*V</t>
-  </si>
-  <si>
-    <t>v[,tic]*u*M</t>
-  </si>
-  <si>
-    <t>v[,tic]*u*R</t>
-  </si>
-  <si>
     <t>(1-v[,tic])*u*R</t>
   </si>
   <si>
@@ -713,9 +683,6 @@
     <t>iiage</t>
   </si>
   <si>
-    <t>u*I</t>
-  </si>
-  <si>
     <t>(1-mprop)*bi</t>
   </si>
   <si>
@@ -723,6 +690,39 @@
   </si>
   <si>
     <t>gamm*I</t>
+  </si>
+  <si>
+    <t>s[,tic]*M*u</t>
+  </si>
+  <si>
+    <t>s[,tic]*S*u</t>
+  </si>
+  <si>
+    <t>s[,tic]*I*u</t>
+  </si>
+  <si>
+    <t>s[,tic]*R*u</t>
+  </si>
+  <si>
+    <t>s[,tic]*V*u</t>
+  </si>
+  <si>
+    <t>(1-v[,tic])*u*M*(1-s)</t>
+  </si>
+  <si>
+    <t>(1-v[,tic])*u*S*(1-s)</t>
+  </si>
+  <si>
+    <t>u*V*(1-s)</t>
+  </si>
+  <si>
+    <t>v[,tic]*u*M*(1-s)</t>
+  </si>
+  <si>
+    <t>u*I*(1-s)</t>
+  </si>
+  <si>
+    <t>v[,tic]*u*R*(1-s)</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,8 +828,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,7 +1093,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="2">
         <v>0.8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1110,12 +1108,12 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="10">
+        <v>184</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.5</v>
       </c>
       <c r="D3" s="1"/>
@@ -1141,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1180,16 +1178,16 @@
         <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1200,16 +1198,16 @@
         <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1229,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1240,16 +1238,16 @@
         <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1260,7 +1258,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>143</v>
@@ -1269,7 +1267,7 @@
         <v>78</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1280,7 +1278,7 @@
         <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>144</v>
@@ -1289,7 +1287,7 @@
         <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1300,16 +1298,16 @@
         <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1320,16 +1318,16 @@
         <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1340,16 +1338,16 @@
         <v>163</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1360,16 +1358,16 @@
         <v>163</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1377,19 +1375,19 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1400,16 +1398,16 @@
         <v>163</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1420,7 +1418,7 @@
         <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>148</v>
@@ -1429,7 +1427,7 @@
         <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1440,7 +1438,7 @@
         <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>149</v>
@@ -1449,7 +1447,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1460,7 +1458,7 @@
         <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>150</v>
@@ -1469,7 +1467,7 @@
         <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1480,7 +1478,7 @@
         <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>151</v>
@@ -1489,7 +1487,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1500,7 +1498,7 @@
         <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>152</v>
@@ -1509,7 +1507,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1520,16 +1518,16 @@
         <v>168</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1548,7 +1546,7 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="116" workbookViewId="0">
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
@@ -1556,13 +1554,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>182</v>
@@ -1574,19 +1572,19 @@
         <v>179</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5942,7 +5940,7 @@
         <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="6"/>
@@ -5958,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I109">
         <v>16</v>
@@ -17206,7 +17204,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B109">
         <v>0.19442177668345256</v>
@@ -17763,7 +17761,7 @@
         <v>141</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="DF1" s="5"/>
     </row>
@@ -52972,7 +52970,7 @@
     </row>
     <row r="109" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B109">
         <v>0.27893747218213799</v>

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FFCD5-0358-8845-82AF-C6CB0E9EECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164CEAF-1540-664B-BC60-B319BBC5778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Loss of maternal immunity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm </t>
   </si>
   <si>
     <t>infection</t>
@@ -671,12 +668,6 @@
     <t>90+</t>
   </si>
   <si>
-    <t>v[,tic]*u*S</t>
-  </si>
-  <si>
-    <t>(1-v[,tic])*u*R</t>
-  </si>
-  <si>
     <t>I[nxt]</t>
   </si>
   <si>
@@ -692,9 +683,6 @@
     <t>gamm*I</t>
   </si>
   <si>
-    <t>s[,tic]*M*u</t>
-  </si>
-  <si>
     <t>s[,tic]*S*u</t>
   </si>
   <si>
@@ -707,22 +695,34 @@
     <t>s[,tic]*V*u</t>
   </si>
   <si>
-    <t>(1-v[,tic])*u*M*(1-s)</t>
+    <t>Confirm </t>
   </si>
   <si>
-    <t>(1-v[,tic])*u*S*(1-s)</t>
+    <t>v[,tic]*u*S*(1-s[,tic])</t>
   </si>
   <si>
-    <t>u*V*(1-s)</t>
+    <t>(1-v[,tic])*u*M*(1-s[,tic])</t>
   </si>
   <si>
-    <t>v[,tic]*u*M*(1-s)</t>
+    <t>(1-v[,tic])*u*S*(1-s[,tic])</t>
   </si>
   <si>
-    <t>u*I*(1-s)</t>
+    <t>u*V*(1-s[,tic])</t>
   </si>
   <si>
-    <t>v[,tic]*u*R*(1-s)</t>
+    <t>v[,tic]*u*M*(1-s[,tic])</t>
+  </si>
+  <si>
+    <t>u*I*(1-s[,tic])</t>
+  </si>
+  <si>
+    <t>v[,tic]*u*R*(1-s[,tic])</t>
+  </si>
+  <si>
+    <t>s[,tic]*M*u*(1-s[,tic])</t>
+  </si>
+  <si>
+    <t>(1-v[,tic])*u*R*(1-s[,tic])</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1097,21 +1097,21 @@
         <v>0.8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C3" s="1">
         <v>1.5</v>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1167,367 +1167,367 @@
         <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1554,37 +1554,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3577,7 +3577,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -3633,7 +3633,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -3657,7 +3657,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3697,7 +3697,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -3737,7 +3737,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -3777,7 +3777,7 @@
         <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3817,7 +3817,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -3857,7 +3857,7 @@
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>144</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -3937,7 +3937,7 @@
         <v>156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -3977,7 +3977,7 @@
         <v>168</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -4017,7 +4017,7 @@
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -4057,7 +4057,7 @@
         <v>192</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -4097,7 +4097,7 @@
         <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -4137,7 +4137,7 @@
         <v>216</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -4177,7 +4177,7 @@
         <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -4217,7 +4217,7 @@
         <v>240</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -4257,7 +4257,7 @@
         <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I67">
         <v>5</v>
@@ -4297,7 +4297,7 @@
         <v>264</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -4337,7 +4337,7 @@
         <v>276</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I69">
         <v>5</v>
@@ -4377,7 +4377,7 @@
         <v>288</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I70">
         <v>5</v>
@@ -4417,7 +4417,7 @@
         <v>300</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4433,7 +4433,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I71">
         <v>6</v>
@@ -4457,7 +4457,7 @@
         <v>312</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I72">
         <v>6</v>
@@ -4497,7 +4497,7 @@
         <v>324</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I73">
         <v>6</v>
@@ -4537,7 +4537,7 @@
         <v>336</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I74">
         <v>6</v>
@@ -4577,7 +4577,7 @@
         <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4593,7 +4593,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I75">
         <v>6</v>
@@ -4617,7 +4617,7 @@
         <v>360</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I76">
         <v>7</v>
@@ -4657,7 +4657,7 @@
         <v>372</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -4673,7 +4673,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I77">
         <v>7</v>
@@ -4697,7 +4697,7 @@
         <v>384</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I78">
         <v>7</v>
@@ -4737,7 +4737,7 @@
         <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I79">
         <v>7</v>
@@ -4777,7 +4777,7 @@
         <v>408</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I80">
         <v>7</v>
@@ -4817,7 +4817,7 @@
         <v>420</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I81">
         <v>8</v>
@@ -4857,7 +4857,7 @@
         <v>432</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I82">
         <v>8</v>
@@ -4897,7 +4897,7 @@
         <v>444</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -4913,7 +4913,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I83">
         <v>8</v>
@@ -4937,7 +4937,7 @@
         <v>456</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I84">
         <v>8</v>
@@ -4977,7 +4977,7 @@
         <v>468</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I85">
         <v>8</v>
@@ -5017,7 +5017,7 @@
         <v>480</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I86">
         <v>9</v>
@@ -5057,7 +5057,7 @@
         <v>492</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -5073,7 +5073,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I87">
         <v>9</v>
@@ -5097,7 +5097,7 @@
         <v>504</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I88">
         <v>9</v>
@@ -5137,7 +5137,7 @@
         <v>516</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I89">
         <v>9</v>
@@ -5177,7 +5177,7 @@
         <v>528</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I90">
         <v>9</v>
@@ -5217,7 +5217,7 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -5233,7 +5233,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I91">
         <v>10</v>
@@ -5257,7 +5257,7 @@
         <v>552</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I92">
         <v>10</v>
@@ -5297,7 +5297,7 @@
         <v>564</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I93">
         <v>10</v>
@@ -5337,7 +5337,7 @@
         <v>576</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I94">
         <v>10</v>
@@ -5377,7 +5377,7 @@
         <v>588</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I95">
         <v>10</v>
@@ -5417,7 +5417,7 @@
         <v>600</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I96">
         <v>11</v>
@@ -5457,7 +5457,7 @@
         <v>612</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I97">
         <v>11</v>
@@ -5497,7 +5497,7 @@
         <v>624</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I98">
         <v>11</v>
@@ -5537,7 +5537,7 @@
         <v>636</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I99">
         <v>11</v>
@@ -5577,7 +5577,7 @@
         <v>648</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -5593,7 +5593,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I100">
         <v>11</v>
@@ -5617,7 +5617,7 @@
         <v>660</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -5657,7 +5657,7 @@
         <v>672</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I102">
         <v>12</v>
@@ -5697,7 +5697,7 @@
         <v>684</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I103">
         <v>12</v>
@@ -5737,7 +5737,7 @@
         <v>696</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I104">
         <v>12</v>
@@ -5777,7 +5777,7 @@
         <v>708</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I105">
         <v>12</v>
@@ -5817,7 +5817,7 @@
         <v>720</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D106" s="1">
         <f>1/10</f>
@@ -5834,7 +5834,7 @@
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I106">
         <v>15</v>
@@ -5858,7 +5858,7 @@
         <v>840</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" ref="D107:D109" si="6">1/10</f>
@@ -5875,7 +5875,7 @@
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I107">
         <v>16</v>
@@ -5899,7 +5899,7 @@
         <v>960</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="6"/>
@@ -5916,7 +5916,7 @@
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I108">
         <v>16</v>
@@ -5940,7 +5940,7 @@
         <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="6"/>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I109">
         <v>16</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>995158.53700466699</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>2.9692198788789635E-3</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>2.2450090731595887E-3</v>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52">
         <v>1.7021585254225018E-3</v>
@@ -11716,7 +11716,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53">
         <v>1.2873457562425682E-3</v>
@@ -11814,7 +11814,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>9.853473533961302E-4</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <v>7.8829921246185324E-4</v>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>7.0352678393842719E-4</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>7.3824391348174649E-4</v>
@@ -12206,7 +12206,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58">
         <v>7.3654257182248918E-4</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59">
         <v>7.9879341610210731E-4</v>
@@ -12402,7 +12402,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>9.1147934493334879E-4</v>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>1.0719195565310653E-3</v>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>1.2931117072927996E-3</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>1.6041817705103162E-3</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64">
         <v>2.0497265341742244E-3</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>2.676580903307206E-3</v>
@@ -12990,7 +12990,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66">
         <v>3.5083138061456614E-3</v>
@@ -13088,7 +13088,7 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67">
         <v>4.5239347104653951E-3</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>5.6553756759356328E-3</v>
@@ -13284,7 +13284,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69">
         <v>6.8092270265930404E-3</v>
@@ -13382,7 +13382,7 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70">
         <v>7.8946991176817669E-3</v>
@@ -13480,7 +13480,7 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71">
         <v>8.8439939856285767E-3</v>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72">
         <v>9.6199404359245712E-3</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>1.0219822349359269E-2</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74">
         <v>1.0666541614018437E-2</v>
@@ -13872,7 +13872,7 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75">
         <v>1.0994429720565494E-2</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>1.1239946914176752E-2</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77">
         <v>1.1436452598432184E-2</v>
@@ -14166,7 +14166,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78">
         <v>1.1609394112405032E-2</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79">
         <v>1.1778721441801556E-2</v>
@@ -14362,7 +14362,7 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80">
         <v>1.1966943107815495E-2</v>
@@ -14460,7 +14460,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81">
         <v>1.2194290828075993E-2</v>
@@ -14558,7 +14558,7 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82">
         <v>1.2470880902130568E-2</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>1.2796638602314111E-2</v>
@@ -14754,7 +14754,7 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>1.3162544566603096E-2</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>1.3548428333937325E-2</v>
@@ -14950,7 +14950,7 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86">
         <v>1.3930247750814605E-2</v>
@@ -15048,7 +15048,7 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>1.4289497090854671E-2</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88">
         <v>1.4614806784683495E-2</v>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>1.490604339738796E-2</v>
@@ -15342,7 +15342,7 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>1.5172781087649153E-2</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91">
         <v>1.5430129990242082E-2</v>
@@ -15538,7 +15538,7 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92">
         <v>1.5693529650769682E-2</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93">
         <v>1.5977558725636731E-2</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94">
         <v>1.6288616790779677E-2</v>
@@ -15832,7 +15832,7 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95">
         <v>1.6629128727932166E-2</v>
@@ -15930,7 +15930,7 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96">
         <v>1.7002133466754842E-2</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B97">
         <v>1.7414167897644661E-2</v>
@@ -16126,7 +16126,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98">
         <v>1.7869670613775666E-2</v>
@@ -16224,7 +16224,7 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99">
         <v>1.8375925230803364E-2</v>
@@ -16322,7 +16322,7 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100">
         <v>1.8941669490926408E-2</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101">
         <v>1.9558101245170628E-2</v>
@@ -16518,7 +16518,7 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>2.020164446764092E-2</v>
@@ -16616,7 +16616,7 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103">
         <v>2.086066529955647E-2</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104">
         <v>2.1544109517972764E-2</v>
@@ -16812,7 +16812,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105">
         <v>2.2277129742224441E-2</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106">
         <v>2.887969122884846E-2</v>
@@ -17008,7 +17008,7 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B107">
         <v>5.3763792845991289E-2</v>
@@ -17106,7 +17106,7 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B108">
         <v>0.11390174303732555</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109">
         <v>0.19442177668345256</v>
@@ -17353,7 +17353,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>60</v>
@@ -17437,7 +17437,7 @@
   <sheetData>
     <row r="1" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -17584,184 +17584,184 @@
         <v>12</v>
       </c>
       <c r="AX1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CA1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CC1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CV1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CX1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CZ1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DB1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CL1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CN1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CV1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CX1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CZ1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DC1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="DD1" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="DE1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DF1" s="5"/>
     </row>
@@ -33559,7 +33559,7 @@
     </row>
     <row r="50" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>3.0795508854560398</v>
@@ -33888,7 +33888,7 @@
     </row>
     <row r="51" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>1.5403664321883299</v>
@@ -34217,7 +34217,7 @@
     </row>
     <row r="52" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52">
         <v>1.5388768904797301</v>
@@ -34546,7 +34546,7 @@
     </row>
     <row r="53" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53">
         <v>1.51885470776624</v>
@@ -34875,7 +34875,7 @@
     </row>
     <row r="54" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>1.51632559194751</v>
@@ -35204,7 +35204,7 @@
     </row>
     <row r="55" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <v>1.5222530647817201</v>
@@ -35533,7 +35533,7 @@
     </row>
     <row r="56" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>0.72491326866870698</v>
@@ -35862,7 +35862,7 @@
     </row>
     <row r="57" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>0.73216305472440801</v>
@@ -36191,7 +36191,7 @@
     </row>
     <row r="58" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58">
         <v>0.73613405330232395</v>
@@ -36520,7 +36520,7 @@
     </row>
     <row r="59" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59">
         <v>0.72697082869352703</v>
@@ -36849,7 +36849,7 @@
     </row>
     <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>0.73558306655608297</v>
@@ -37178,7 +37178,7 @@
     </row>
     <row r="61" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>0.48114219680790699</v>
@@ -37507,7 +37507,7 @@
     </row>
     <row r="62" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>0.49059328010569597</v>
@@ -37836,7 +37836,7 @@
     </row>
     <row r="63" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>0.50372116267179201</v>
@@ -38165,7 +38165,7 @@
     </row>
     <row r="64" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64">
         <v>0.51943395542034998</v>
@@ -38494,7 +38494,7 @@
     </row>
     <row r="65" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>0.53421028179532404</v>
@@ -38823,7 +38823,7 @@
     </row>
     <row r="66" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66">
         <v>0.91568282876648499</v>
@@ -39152,7 +39152,7 @@
     </row>
     <row r="67" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67">
         <v>0.91211805795207801</v>
@@ -39481,7 +39481,7 @@
     </row>
     <row r="68" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>0.90117111766816804</v>
@@ -39810,7 +39810,7 @@
     </row>
     <row r="69" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69">
         <v>0.889297562719915</v>
@@ -40139,7 +40139,7 @@
     </row>
     <row r="70" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70">
         <v>0.88093788721448096</v>
@@ -40468,7 +40468,7 @@
     </row>
     <row r="71" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71">
         <v>1.3803202231038401</v>
@@ -40797,7 +40797,7 @@
     </row>
     <row r="72" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72">
         <v>1.3417768688783001</v>
@@ -41126,7 +41126,7 @@
     </row>
     <row r="73" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>1.3234313191504099</v>
@@ -41455,7 +41455,7 @@
     </row>
     <row r="74" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74">
         <v>1.31263998964059</v>
@@ -41784,7 +41784,7 @@
     </row>
     <row r="75" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75">
         <v>1.30103307469737</v>
@@ -42113,7 +42113,7 @@
     </row>
     <row r="76" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>1.29108420339538</v>
@@ -42442,7 +42442,7 @@
     </row>
     <row r="77" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77">
         <v>1.28256370573981</v>
@@ -42771,7 +42771,7 @@
     </row>
     <row r="78" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78">
         <v>1.27327544795269</v>
@@ -43100,7 +43100,7 @@
     </row>
     <row r="79" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79">
         <v>1.26135613379461</v>
@@ -43429,7 +43429,7 @@
     </row>
     <row r="80" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80">
         <v>1.2615938860392599</v>
@@ -43758,7 +43758,7 @@
     </row>
     <row r="81" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81">
         <v>1.0806798146049601</v>
@@ -44087,7 +44087,7 @@
     </row>
     <row r="82" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82">
         <v>1.11057849929042</v>
@@ -44416,7 +44416,7 @@
     </row>
     <row r="83" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>1.1443655958197501</v>
@@ -44745,7 +44745,7 @@
     </row>
     <row r="84" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>1.1734478777728301</v>
@@ -45074,7 +45074,7 @@
     </row>
     <row r="85" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>1.20078201033138</v>
@@ -45403,7 +45403,7 @@
     </row>
     <row r="86" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86">
         <v>0.73835707780714999</v>
@@ -45732,7 +45732,7 @@
     </row>
     <row r="87" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>0.76100348365669901</v>
@@ -46061,7 +46061,7 @@
     </row>
     <row r="88" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88">
         <v>0.79283538067102699</v>
@@ -46390,7 +46390,7 @@
     </row>
     <row r="89" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>0.84239788828037898</v>
@@ -46719,7 +46719,7 @@
     </row>
     <row r="90" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>0.90345473948639698</v>
@@ -47048,7 +47048,7 @@
     </row>
     <row r="91" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91">
         <v>0.55896183669742106</v>
@@ -47377,7 +47377,7 @@
     </row>
     <row r="92" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92">
         <v>0.58272587527472397</v>
@@ -47706,7 +47706,7 @@
     </row>
     <row r="93" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93">
         <v>0.58917433174133704</v>
@@ -48035,7 +48035,7 @@
     </row>
     <row r="94" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94">
         <v>0.57945224777562099</v>
@@ -48364,7 +48364,7 @@
     </row>
     <row r="95" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95">
         <v>0.56127975800450902</v>
@@ -48693,7 +48693,7 @@
     </row>
     <row r="96" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96">
         <v>0.58477024325599503</v>
@@ -49022,7 +49022,7 @@
     </row>
     <row r="97" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B97">
         <v>0.57175272386314202</v>
@@ -49351,7 +49351,7 @@
     </row>
     <row r="98" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98">
         <v>0.56538816504662204</v>
@@ -49680,7 +49680,7 @@
     </row>
     <row r="99" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99">
         <v>0.56539603100711</v>
@@ -50009,7 +50009,7 @@
     </row>
     <row r="100" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100">
         <v>0.572598454392925</v>
@@ -50338,7 +50338,7 @@
     </row>
     <row r="101" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101">
         <v>0.67334452598216998</v>
@@ -50667,7 +50667,7 @@
     </row>
     <row r="102" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>0.69089640016937903</v>
@@ -50996,7 +50996,7 @@
     </row>
     <row r="103" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103">
         <v>0.71301157888869005</v>
@@ -51325,7 +51325,7 @@
     </row>
     <row r="104" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104">
         <v>0.73929618341876402</v>
@@ -51654,7 +51654,7 @@
     </row>
     <row r="105" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105">
         <v>0.76950046541587702</v>
@@ -51983,7 +51983,7 @@
     </row>
     <row r="106" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106">
         <v>0.279310077925983</v>
@@ -52312,7 +52312,7 @@
     </row>
     <row r="107" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107">
         <v>0.131816831188377</v>
@@ -52641,7 +52641,7 @@
     </row>
     <row r="108" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108">
         <v>0.16248190524491299</v>
@@ -52970,7 +52970,7 @@
     </row>
     <row r="109" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109">
         <v>0.27893747218213799</v>
@@ -53302,37 +53302,37 @@
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164CEAF-1540-664B-BC60-B319BBC5778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7E3E5-F06D-BB49-A5BE-543132168805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="235">
   <si>
     <t>param</t>
   </si>
@@ -724,6 +724,27 @@
   <si>
     <t>(1-v[,tic])*u*R*(1-s[,tic])</t>
   </si>
+  <si>
+    <t>agecat_new</t>
+  </si>
+  <si>
+    <t>0-6 month</t>
+  </si>
+  <si>
+    <t>7-12 month</t>
+  </si>
+  <si>
+    <t>1-2 years</t>
+  </si>
+  <si>
+    <t>2-3 years</t>
+  </si>
+  <si>
+    <t>3-4 years</t>
+  </si>
+  <si>
+    <t>70+</t>
+  </si>
 </sst>
 </file>
 
@@ -818,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,6 +849,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1544,15 +1566,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="116" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>184</v>
       </c>
@@ -1586,8 +1608,17 @@
       <c r="K1" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1628,8 +1659,18 @@
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P2" s="2">
+        <f>365/180</f>
+        <v>2.0277777777777777</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1670,8 +1711,18 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="2">
+        <f>365/180</f>
+        <v>2.0277777777777777</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1712,8 +1763,17 @@
       <c r="L4">
         <v>1</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1754,8 +1814,17 @@
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1796,8 +1865,17 @@
       <c r="L6">
         <v>1</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1839,8 +1917,17 @@
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1881,8 +1968,17 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1923,8 +2019,17 @@
       <c r="L9">
         <v>1</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1965,8 +2070,17 @@
       <c r="L10">
         <v>1</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2007,8 +2121,17 @@
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="M11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2049,8 +2172,17 @@
       <c r="L12">
         <v>1</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2092,8 +2224,17 @@
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2133,8 +2274,17 @@
       <c r="L14">
         <v>1</v>
       </c>
+      <c r="M14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2174,8 +2324,17 @@
       <c r="L15">
         <v>1</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2215,8 +2374,17 @@
       <c r="L16">
         <v>1</v>
       </c>
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2256,8 +2424,17 @@
       <c r="L17">
         <v>1</v>
       </c>
+      <c r="M17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2297,8 +2474,17 @@
       <c r="L18">
         <v>1</v>
       </c>
+      <c r="M18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2338,8 +2524,17 @@
       <c r="L19">
         <v>1</v>
       </c>
+      <c r="M19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2379,8 +2574,17 @@
       <c r="L20">
         <v>1</v>
       </c>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2420,8 +2624,17 @@
       <c r="L21">
         <v>1</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2461,8 +2674,17 @@
       <c r="L22">
         <v>1</v>
       </c>
+      <c r="M22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2502,8 +2724,17 @@
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="M23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2543,8 +2774,17 @@
       <c r="L24">
         <v>1</v>
       </c>
+      <c r="M24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2584,8 +2824,17 @@
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="M25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2625,8 +2874,17 @@
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2666,8 +2924,17 @@
       <c r="L27">
         <v>1</v>
       </c>
+      <c r="M27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2707,8 +2974,17 @@
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="M28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2748,8 +3024,17 @@
       <c r="L29">
         <v>1</v>
       </c>
+      <c r="M29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2789,8 +3074,17 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="M30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2830,8 +3124,17 @@
       <c r="L31">
         <v>1</v>
       </c>
+      <c r="M31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2871,8 +3174,17 @@
       <c r="L32">
         <v>1</v>
       </c>
+      <c r="M32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2912,8 +3224,17 @@
       <c r="L33">
         <v>1</v>
       </c>
+      <c r="M33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2953,8 +3274,17 @@
       <c r="L34">
         <v>1</v>
       </c>
+      <c r="M34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2994,8 +3324,17 @@
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3035,8 +3374,17 @@
       <c r="L36">
         <v>1</v>
       </c>
+      <c r="M36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3076,8 +3424,17 @@
       <c r="L37">
         <v>1</v>
       </c>
+      <c r="M37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3117,8 +3474,17 @@
       <c r="L38">
         <v>1</v>
       </c>
+      <c r="M38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3158,8 +3524,17 @@
       <c r="L39">
         <v>1</v>
       </c>
+      <c r="M39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3199,8 +3574,17 @@
       <c r="L40">
         <v>1</v>
       </c>
+      <c r="M40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3240,8 +3624,17 @@
       <c r="L41">
         <v>1</v>
       </c>
+      <c r="M41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3281,8 +3674,17 @@
       <c r="L42">
         <v>1</v>
       </c>
+      <c r="M42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3322,8 +3724,17 @@
       <c r="L43">
         <v>1</v>
       </c>
+      <c r="M43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3363,8 +3774,17 @@
       <c r="L44">
         <v>1</v>
       </c>
+      <c r="M44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3404,8 +3824,17 @@
       <c r="L45">
         <v>1</v>
       </c>
+      <c r="M45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3445,8 +3874,17 @@
       <c r="L46">
         <v>1</v>
       </c>
+      <c r="M46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3486,8 +3924,17 @@
       <c r="L47">
         <v>1</v>
       </c>
+      <c r="M47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3527,8 +3974,17 @@
       <c r="L48">
         <v>1</v>
       </c>
+      <c r="M48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3568,8 +4024,17 @@
       <c r="L49">
         <v>1</v>
       </c>
+      <c r="M49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3608,8 +4073,17 @@
       <c r="L50">
         <v>1</v>
       </c>
+      <c r="M50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3648,8 +4122,17 @@
       <c r="L51">
         <v>1</v>
       </c>
+      <c r="M51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3688,8 +4171,17 @@
       <c r="L52">
         <v>1</v>
       </c>
+      <c r="M52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3728,8 +4220,17 @@
       <c r="L53">
         <v>1</v>
       </c>
+      <c r="M53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3768,8 +4269,17 @@
       <c r="L54">
         <v>1</v>
       </c>
+      <c r="M54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3808,8 +4318,17 @@
       <c r="L55">
         <v>1</v>
       </c>
+      <c r="M55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3848,8 +4367,17 @@
       <c r="L56">
         <v>1</v>
       </c>
+      <c r="M56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3888,8 +4416,17 @@
       <c r="L57">
         <v>1</v>
       </c>
+      <c r="M57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3928,8 +4465,17 @@
       <c r="L58">
         <v>1</v>
       </c>
+      <c r="M58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3968,8 +4514,17 @@
       <c r="L59">
         <v>1</v>
       </c>
+      <c r="M59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4008,8 +4563,17 @@
       <c r="L60">
         <v>2</v>
       </c>
+      <c r="M60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4048,8 +4612,17 @@
       <c r="L61">
         <v>2</v>
       </c>
+      <c r="M61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4088,8 +4661,17 @@
       <c r="L62">
         <v>2</v>
       </c>
+      <c r="M62" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4128,8 +4710,17 @@
       <c r="L63">
         <v>2</v>
       </c>
+      <c r="M63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4168,8 +4759,17 @@
       <c r="L64">
         <v>2</v>
       </c>
+      <c r="M64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P64">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="65" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4208,8 +4808,12 @@
       <c r="L65">
         <v>3</v>
       </c>
+      <c r="M65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4248,8 +4852,12 @@
       <c r="L66">
         <v>3</v>
       </c>
+      <c r="M66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4288,8 +4896,11 @@
       <c r="L67">
         <v>3</v>
       </c>
+      <c r="M67" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="68" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4328,8 +4939,11 @@
       <c r="L68">
         <v>3</v>
       </c>
+      <c r="M68" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="69" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4368,8 +4982,11 @@
       <c r="L69">
         <v>3</v>
       </c>
+      <c r="M69" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="70" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4408,8 +5025,11 @@
       <c r="L70">
         <v>4</v>
       </c>
+      <c r="M70" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="71" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4448,8 +5068,11 @@
       <c r="L71">
         <v>4</v>
       </c>
+      <c r="M71" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="72" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4488,8 +5111,11 @@
       <c r="L72">
         <v>4</v>
       </c>
+      <c r="M72" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4528,8 +5154,11 @@
       <c r="L73">
         <v>4</v>
       </c>
+      <c r="M73" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4568,8 +5197,11 @@
       <c r="L74">
         <v>4</v>
       </c>
+      <c r="M74" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4608,8 +5240,11 @@
       <c r="L75">
         <v>5</v>
       </c>
+      <c r="M75" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="76" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4648,8 +5283,11 @@
       <c r="L76">
         <v>5</v>
       </c>
+      <c r="M76" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4688,8 +5326,11 @@
       <c r="L77">
         <v>5</v>
       </c>
+      <c r="M77" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4728,8 +5369,11 @@
       <c r="L78">
         <v>5</v>
       </c>
+      <c r="M78" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="79" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4768,8 +5412,11 @@
       <c r="L79">
         <v>5</v>
       </c>
+      <c r="M79" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="80" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4808,8 +5455,11 @@
       <c r="L80">
         <v>6</v>
       </c>
+      <c r="M80" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="81" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4848,8 +5498,11 @@
       <c r="L81">
         <v>6</v>
       </c>
+      <c r="M81" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="82" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4888,8 +5541,11 @@
       <c r="L82">
         <v>6</v>
       </c>
+      <c r="M82" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="83" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4928,8 +5584,11 @@
       <c r="L83">
         <v>6</v>
       </c>
+      <c r="M83" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="84" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4968,8 +5627,11 @@
       <c r="L84">
         <v>6</v>
       </c>
+      <c r="M84" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="85" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5008,8 +5670,11 @@
       <c r="L85">
         <v>7</v>
       </c>
+      <c r="M85" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="86" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5048,8 +5713,11 @@
       <c r="L86">
         <v>7</v>
       </c>
+      <c r="M86" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="87" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5088,8 +5756,11 @@
       <c r="L87">
         <v>7</v>
       </c>
+      <c r="M87" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="88" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5128,8 +5799,11 @@
       <c r="L88">
         <v>7</v>
       </c>
+      <c r="M88" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5168,8 +5842,11 @@
       <c r="L89">
         <v>7</v>
       </c>
+      <c r="M89" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="90" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5208,8 +5885,11 @@
       <c r="L90">
         <v>8</v>
       </c>
+      <c r="M90" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="91" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5248,8 +5928,11 @@
       <c r="L91">
         <v>8</v>
       </c>
+      <c r="M91" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="92" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5288,8 +5971,11 @@
       <c r="L92">
         <v>8</v>
       </c>
+      <c r="M92" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="93" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5328,8 +6014,11 @@
       <c r="L93">
         <v>8</v>
       </c>
+      <c r="M93" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="94" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5368,8 +6057,11 @@
       <c r="L94">
         <v>8</v>
       </c>
+      <c r="M94" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="95" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5408,8 +6100,11 @@
       <c r="L95">
         <v>9</v>
       </c>
+      <c r="M95" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="96" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5448,8 +6143,11 @@
       <c r="L96">
         <v>9</v>
       </c>
+      <c r="M96" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="97" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5488,8 +6186,11 @@
       <c r="L97">
         <v>9</v>
       </c>
+      <c r="M97" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="98" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5528,8 +6229,11 @@
       <c r="L98">
         <v>9</v>
       </c>
+      <c r="M98" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="99" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5568,8 +6272,11 @@
       <c r="L99">
         <v>9</v>
       </c>
+      <c r="M99" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="100" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5608,8 +6315,11 @@
       <c r="L100">
         <v>10</v>
       </c>
+      <c r="M100" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="101" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5648,8 +6358,11 @@
       <c r="L101">
         <v>10</v>
       </c>
+      <c r="M101" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5688,8 +6401,11 @@
       <c r="L102">
         <v>10</v>
       </c>
+      <c r="M102" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5728,8 +6444,11 @@
       <c r="L103">
         <v>10</v>
       </c>
+      <c r="M103" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5768,8 +6487,11 @@
       <c r="L104">
         <v>10</v>
       </c>
+      <c r="M104" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5808,8 +6530,11 @@
       <c r="L105">
         <v>10</v>
       </c>
+      <c r="M105" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5849,8 +6574,11 @@
       <c r="L106">
         <v>11</v>
       </c>
+      <c r="M106" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5890,8 +6618,11 @@
       <c r="L107">
         <v>11</v>
       </c>
+      <c r="M107" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5931,8 +6662,11 @@
       <c r="L108">
         <v>11</v>
       </c>
+      <c r="M108" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5971,8 +6705,11 @@
       <c r="L109">
         <v>11</v>
       </c>
+      <c r="M109" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
@@ -5982,11 +6719,12 @@
       <c r="G110" s="2"/>
       <c r="H110" s="5"/>
       <c r="J110" s="1"/>
+      <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6612,8 +7350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7E3E5-F06D-BB49-A5BE-543132168805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD286D1-D84D-B94D-A456-3F04F01EB13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="236">
   <si>
     <t>param</t>
   </si>
@@ -719,9 +719,6 @@
     <t>v[,tic]*u*R*(1-s[,tic])</t>
   </si>
   <si>
-    <t>s[,tic]*M*u*(1-s[,tic])</t>
-  </si>
-  <si>
     <t>(1-v[,tic])*u*R*(1-s[,tic])</t>
   </si>
   <si>
@@ -744,6 +741,12 @@
   </si>
   <si>
     <t>70+</t>
+  </si>
+  <si>
+    <t>s[,tic]*M*u</t>
+  </si>
+  <si>
+    <t>ageing, from infected</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1406,7 +1409,7 @@
         <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>191</v>
@@ -1440,7 +1443,7 @@
         <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>147</v>
@@ -1540,7 +1543,7 @@
         <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>194</v>
@@ -1568,7 +1571,7 @@
   </sheetPr>
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="F11" zoomScale="116" workbookViewId="0">
       <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
@@ -1612,7 +1615,7 @@
         <v>185</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>181</v>
@@ -1663,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P2" s="2">
         <f>365/180</f>
@@ -1715,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P3" s="2">
         <f>365/180</f>
@@ -1767,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1818,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1869,7 +1872,7 @@
         <v>17</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -4763,7 +4766,7 @@
         <v>96</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P64">
         <v>0.1</v>

--- a/modelStructure/RubellaModel.xlsx
+++ b/modelStructure/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6315CE2A-0AD0-4049-AAEA-E4001FE3D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F015C6EA-6AA5-1B49-8071-D0604516623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -813,9 +813,6 @@
     <t>Edeath</t>
   </si>
   <si>
-    <t>alpha*I</t>
-  </si>
-  <si>
     <t>Infec</t>
   </si>
   <si>
@@ -1030,6 +1027,9 @@
   </si>
   <si>
     <t>70+</t>
+  </si>
+  <si>
+    <t>alpha*E</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17953FCA-C542-F245-8458-E0A08348AC2A}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1798,13 +1798,13 @@
         <v>162</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>223</v>
@@ -1815,16 +1815,16 @@
         <v>234</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>223</v>
@@ -1858,10 +1858,10 @@
         <v>169</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>78</v>
@@ -1878,13 +1878,13 @@
         <v>208</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>223</v>
@@ -1898,10 +1898,10 @@
         <v>169</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>78</v>
@@ -1918,13 +1918,13 @@
         <v>166</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>223</v>
@@ -1938,13 +1938,13 @@
         <v>226</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>223</v>
@@ -1958,13 +1958,13 @@
         <v>247</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>223</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>78</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>223</v>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>223</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>78</v>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>223</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>223</v>
@@ -2092,19 +2092,19 @@
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>251</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>223</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>223</v>
@@ -2132,16 +2132,16 @@
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>78</v>
@@ -2152,19 +2152,19 @@
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>223</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>78</v>
@@ -2192,19 +2192,19 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>251</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>223</v>
@@ -2212,19 +2212,19 @@
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>223</v>
@@ -2646,7 +2646,7 @@
   </sheetPr>
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2">
         <f>365/180</f>
@@ -2700,7 +2700,7 @@
         <v>2.0277777777777777</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>H2/120</f>
+        <f t="shared" ref="I2:I33" si="0">H2/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J2">
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2">
         <f>365/180</f>
@@ -2735,7 +2735,7 @@
         <v>2.0277777777777777</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f>H3/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J3">
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>H4/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J4">
@@ -2792,7 +2792,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <f>H5/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J5">
@@ -2825,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>H6/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J6">
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <f>H7/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J7">
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <f>H8/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J8">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>H9/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J9">
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f>H10/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J10">
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <f>H11/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J11">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>H12/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J12">
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f>H13/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J13">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>H14/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J14">
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f>H15/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J15">
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <f>H16/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J16">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <f>H17/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J17">
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f>H18/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J18">
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <f>H19/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J19">
@@ -3305,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <f>H20/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J20">
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <f>H21/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J21">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <f>H22/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J22">
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f>H23/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J23">
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f>H24/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J24">
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f>H25/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J25">
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <f>H26/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J26">
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <f>H27/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J27">
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <f>H28/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J28">
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <f>H29/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J29">
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <f>H30/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J30">
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <f>H31/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J31">
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <f>H32/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J32">
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f>H33/120</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J33">
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <f>H34/120</f>
+        <f t="shared" ref="I34:I65" si="1">H34/120</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J34">
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <f>H35/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J35">
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f>H36/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J36">
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f>H37/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J37">
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <f>H38/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J38">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>H39/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J39">
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f>H40/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J40">
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f>H41/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J41">
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f>H42/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J42">
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f>H43/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J43">
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <f>H44/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J44">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f>H45/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J45">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <f>H46/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J46">
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <f>H47/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J47">
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <f>H48/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J48">
@@ -4244,7 +4244,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <f>H49/120</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="J49">
@@ -4295,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="I50">
-        <f>H50/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J50">
@@ -4328,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="I51">
-        <f>H51/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J51">
@@ -4361,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="I52">
-        <f>H52/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J52">
@@ -4394,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="I53">
-        <f>H53/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J53">
@@ -4427,7 +4427,7 @@
         <v>12</v>
       </c>
       <c r="I54">
-        <f>H54/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J54">
@@ -4460,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="I55">
-        <f>H55/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J55">
@@ -4493,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="I56">
-        <f>H56/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J56">
@@ -4526,7 +4526,7 @@
         <v>12</v>
       </c>
       <c r="I57">
-        <f>H57/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J57">
@@ -4559,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="I58">
-        <f>H58/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J58">
@@ -4592,7 +4592,7 @@
         <v>12</v>
       </c>
       <c r="I59">
-        <f>H59/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J59">
@@ -4625,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="I60">
-        <f>H60/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J60">
@@ -4658,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="I61">
-        <f>H61/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J61">
@@ -4691,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="I62">
-        <f>H62/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J62">
@@ -4724,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="I63">
-        <f>H63/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J63">
@@ -4739,7 +4739,7 @@
         <v>216</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D64">
         <f>365/(265*30)</f>
@@ -4750,7 +4750,7 @@
         <v>4.5911949685534588E-2</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G64">
         <v>14</v>
@@ -4759,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="I64">
-        <f>H64/120</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J64">
@@ -16672,10 +16672,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -16705,10 +16705,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -16716,10 +16716,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -16727,10 +16727,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -16738,10 +16738,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
